--- a/Output/past_revpab.xlsx
+++ b/Output/past_revpab.xlsx
@@ -536,1201 +536,1201 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Jun</t>
+          <t>Jul</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26.16511474609375</v>
+        <v>30.9627685546875</v>
       </c>
       <c r="C2" t="n">
-        <v>30.3847265625</v>
+        <v>22.5655078125</v>
       </c>
       <c r="D2" t="n">
-        <v>33.9049072265625</v>
+        <v>23.73066650390625</v>
       </c>
       <c r="E2" t="n">
-        <v>18.4313818359375</v>
+        <v>22.0329443359375</v>
       </c>
       <c r="F2" t="n">
-        <v>19.9004150390625</v>
+        <v>26.6915771484375</v>
       </c>
       <c r="G2" t="n">
-        <v>11.144267578125</v>
+        <v>32.7621875</v>
       </c>
       <c r="H2" t="n">
-        <v>12.318486328125</v>
+        <v>37.085712890625</v>
       </c>
       <c r="I2" t="n">
-        <v>31.34610595703125</v>
+        <v>45.49189453125</v>
       </c>
       <c r="J2" t="n">
-        <v>40.7147607421875</v>
+        <v>24.7978125</v>
       </c>
       <c r="K2" t="n">
-        <v>38.02450927734375</v>
+        <v>9.678671874999999</v>
       </c>
       <c r="L2" t="n">
-        <v>27.80630615234375</v>
+        <v>14.800517578125</v>
       </c>
       <c r="M2" t="n">
-        <v>20.75390625</v>
+        <v>5.972460937499999</v>
       </c>
       <c r="N2" t="n">
-        <v>27.558349609375</v>
+        <v>7.94212890625</v>
       </c>
       <c r="O2" t="n">
-        <v>37.474794921875</v>
+        <v>11.202685546875</v>
       </c>
       <c r="P2" t="n">
-        <v>14.146171875</v>
+        <v>12.9144970703125</v>
       </c>
       <c r="Q2" t="n">
-        <v>18.58265380859375</v>
+        <v>7.446943359375</v>
       </c>
       <c r="R2" t="n">
-        <v>25.34842529296875</v>
+        <v>5.8716259765625</v>
       </c>
       <c r="S2" t="n">
-        <v>34.464345703125</v>
+        <v>5.29050537109375</v>
       </c>
       <c r="T2" t="n">
-        <v>19.10173583984375</v>
+        <v>13.072939453125</v>
       </c>
       <c r="U2" t="n">
-        <v>12.3667236328125</v>
+        <v>10.0351904296875</v>
       </c>
       <c r="V2" t="n">
-        <v>9.075598144531249</v>
+        <v>8.7627392578125</v>
       </c>
       <c r="W2" t="n">
-        <v>7.748330078125001</v>
+        <v>7.700561523437501</v>
       </c>
       <c r="X2" t="n">
-        <v>12.6377978515625</v>
+        <v>6.06097412109375</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.89923828125</v>
+        <v>4.00932861328125</v>
       </c>
       <c r="Z2" t="n">
-        <v>24.059677734375</v>
+        <v>6.97728515625</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5081298828125</v>
+        <v>14.547060546875</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.42509765625</v>
+        <v>15.3746923828125</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4539453125</v>
+        <v>39.529951171875</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.4360498046875</v>
+        <v>35.91072265625</v>
       </c>
       <c r="AE2" t="n">
-        <v>31.94666015625</v>
+        <v>23.78193115234375</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>9.065615234375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Jul</t>
+          <t>Aug</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.600048828125</v>
+        <v>9.957160644531251</v>
       </c>
       <c r="C3" t="n">
-        <v>35.589111328125</v>
+        <v>6.693984374999999</v>
       </c>
       <c r="D3" t="n">
-        <v>30.146396484375</v>
+        <v>16.6516455078125</v>
       </c>
       <c r="E3" t="n">
-        <v>16.864453125</v>
+        <v>31.547978515625</v>
       </c>
       <c r="F3" t="n">
-        <v>11.54705078125</v>
+        <v>47.69736328125</v>
       </c>
       <c r="G3" t="n">
-        <v>8.72388671875</v>
+        <v>43.905546875</v>
       </c>
       <c r="H3" t="n">
-        <v>18.259541015625</v>
+        <v>11.50140625</v>
       </c>
       <c r="I3" t="n">
-        <v>31.50609375</v>
+        <v>10.34296875</v>
       </c>
       <c r="J3" t="n">
-        <v>20.44634033203125</v>
+        <v>13.8900390625</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5792236328125</v>
+        <v>20.1517822265625</v>
       </c>
       <c r="L3" t="n">
-        <v>9.90700927734375</v>
+        <v>19.60728515625</v>
       </c>
       <c r="M3" t="n">
-        <v>12.70705078125</v>
+        <v>34.32151123046875</v>
       </c>
       <c r="N3" t="n">
-        <v>15.9989501953125</v>
+        <v>37.70682373046875</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8494384765625</v>
+        <v>14.833544921875</v>
       </c>
       <c r="P3" t="n">
-        <v>28.51951904296875</v>
+        <v>19.469892578125</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.278388671875</v>
+        <v>15.4231201171875</v>
       </c>
       <c r="R3" t="n">
-        <v>17.24597900390625</v>
+        <v>19.35615234375</v>
       </c>
       <c r="S3" t="n">
-        <v>17.14602783203125</v>
+        <v>21.0098486328125</v>
       </c>
       <c r="T3" t="n">
-        <v>18.01706298828125</v>
+        <v>30.354013671875</v>
       </c>
       <c r="U3" t="n">
-        <v>25.6636083984375</v>
+        <v>35.6342578125</v>
       </c>
       <c r="V3" t="n">
-        <v>26.942626953125</v>
+        <v>10.452265625</v>
       </c>
       <c r="W3" t="n">
-        <v>27.47646484375</v>
+        <v>14.2217041015625</v>
       </c>
       <c r="X3" t="n">
-        <v>31.4717333984375</v>
+        <v>20.773134765625</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.545673828125</v>
+        <v>13.49371337890625</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.1233544921875</v>
+        <v>15.7810986328125</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.26785400390625</v>
+        <v>21.47725341796875</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5222412109375</v>
+        <v>24.42365234375</v>
       </c>
       <c r="AC3" t="n">
-        <v>16.5255224609375</v>
+        <v>13.1544140625</v>
       </c>
       <c r="AD3" t="n">
-        <v>32.8760986328125</v>
+        <v>5.3516552734375</v>
       </c>
       <c r="AE3" t="n">
-        <v>30.7153125</v>
+        <v>12.36082763671875</v>
       </c>
       <c r="AF3" t="n">
-        <v>17.57978515625</v>
+        <v>11.53703125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Aug</t>
+          <t>Sep</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.452041015625</v>
+        <v>16.78538818359375</v>
       </c>
       <c r="C4" t="n">
-        <v>17.18447265625</v>
+        <v>22.91494140625</v>
       </c>
       <c r="D4" t="n">
-        <v>23.7013037109375</v>
+        <v>28.581416015625</v>
       </c>
       <c r="E4" t="n">
-        <v>22.06624755859375</v>
+        <v>19.28759765625</v>
       </c>
       <c r="F4" t="n">
-        <v>27.3724365234375</v>
+        <v>10.8495556640625</v>
       </c>
       <c r="G4" t="n">
-        <v>27.71553955078125</v>
+        <v>10.15916015625</v>
       </c>
       <c r="H4" t="n">
-        <v>11.50140625</v>
+        <v>11.4881982421875</v>
       </c>
       <c r="I4" t="n">
-        <v>10.34296875</v>
+        <v>21.2465869140625</v>
       </c>
       <c r="J4" t="n">
-        <v>13.8900390625</v>
+        <v>30.33995361328125</v>
       </c>
       <c r="K4" t="n">
-        <v>20.1517822265625</v>
+        <v>27.037294921875</v>
       </c>
       <c r="L4" t="n">
-        <v>19.60728515625</v>
+        <v>18.45692138671875</v>
       </c>
       <c r="M4" t="n">
-        <v>34.32151123046875</v>
+        <v>14.88662841796875</v>
       </c>
       <c r="N4" t="n">
-        <v>37.70682373046875</v>
+        <v>14.3994677734375</v>
       </c>
       <c r="O4" t="n">
-        <v>14.833544921875</v>
+        <v>16.163671875</v>
       </c>
       <c r="P4" t="n">
-        <v>19.469892578125</v>
+        <v>14.3108642578125</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.4231201171875</v>
+        <v>36.590556640625</v>
       </c>
       <c r="R4" t="n">
-        <v>19.35615234375</v>
+        <v>36.731484375</v>
       </c>
       <c r="S4" t="n">
-        <v>21.0098486328125</v>
+        <v>24.906708984375</v>
       </c>
       <c r="T4" t="n">
-        <v>30.354013671875</v>
+        <v>18.897333984375</v>
       </c>
       <c r="U4" t="n">
-        <v>35.6342578125</v>
+        <v>21.3402490234375</v>
       </c>
       <c r="V4" t="n">
-        <v>10.452265625</v>
+        <v>19.3273828125</v>
       </c>
       <c r="W4" t="n">
-        <v>14.2217041015625</v>
+        <v>26.5098046875</v>
       </c>
       <c r="X4" t="n">
-        <v>20.773134765625</v>
+        <v>33.9161376953125</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.49371337890625</v>
+        <v>37.07528564453125</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.7810986328125</v>
+        <v>29.1712646484375</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.47725341796875</v>
+        <v>24.8955419921875</v>
       </c>
       <c r="AB4" t="n">
-        <v>24.42365234375</v>
+        <v>25.533759765625</v>
       </c>
       <c r="AC4" t="n">
-        <v>13.1544140625</v>
+        <v>22.75990234375</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.3516552734375</v>
+        <v>29.923154296875</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.36082763671875</v>
+        <v>29.47313232421875</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.6186279296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Sep</t>
+          <t>Oct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.2241357421875</v>
+        <v>20.64867919921875</v>
       </c>
       <c r="C5" t="n">
-        <v>22.91494140625</v>
+        <v>10.4444921875</v>
       </c>
       <c r="D5" t="n">
-        <v>28.581416015625</v>
+        <v>8.807829589843751</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28759765625</v>
+        <v>15.37821533203125</v>
       </c>
       <c r="F5" t="n">
-        <v>10.8495556640625</v>
+        <v>17.13857666015625</v>
       </c>
       <c r="G5" t="n">
-        <v>10.15916015625</v>
+        <v>34.22794921875</v>
       </c>
       <c r="H5" t="n">
-        <v>11.4881982421875</v>
+        <v>39.8888671875</v>
       </c>
       <c r="I5" t="n">
-        <v>21.2465869140625</v>
+        <v>39.8888671875</v>
       </c>
       <c r="J5" t="n">
-        <v>30.33995361328125</v>
+        <v>23.380048828125</v>
       </c>
       <c r="K5" t="n">
-        <v>27.037294921875</v>
+        <v>8.647185058593749</v>
       </c>
       <c r="L5" t="n">
-        <v>19.8766845703125</v>
+        <v>5.000166015625</v>
       </c>
       <c r="M5" t="n">
-        <v>16.09365234375</v>
+        <v>13.865673828125</v>
       </c>
       <c r="N5" t="n">
-        <v>14.3994677734375</v>
+        <v>40.6663818359375</v>
       </c>
       <c r="O5" t="n">
-        <v>16.163671875</v>
+        <v>50.99062499999999</v>
       </c>
       <c r="P5" t="n">
-        <v>14.3108642578125</v>
+        <v>56.8837890625</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.590556640625</v>
+        <v>32.3876953125</v>
       </c>
       <c r="R5" t="n">
-        <v>36.731484375</v>
+        <v>9.67138671875</v>
       </c>
       <c r="S5" t="n">
-        <v>24.906708984375</v>
+        <v>12.8828125</v>
       </c>
       <c r="T5" t="n">
-        <v>18.897333984375</v>
+        <v>17.74716796875</v>
       </c>
       <c r="U5" t="n">
-        <v>21.3402490234375</v>
+        <v>30.95029296875</v>
       </c>
       <c r="V5" t="n">
-        <v>19.3273828125</v>
+        <v>34.41470703125</v>
       </c>
       <c r="W5" t="n">
-        <v>26.5098046875</v>
+        <v>39.6463671875</v>
       </c>
       <c r="X5" t="n">
-        <v>33.9161376953125</v>
+        <v>22.9320703125</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.07528564453125</v>
+        <v>9.419921875</v>
       </c>
       <c r="Z5" t="n">
-        <v>29.1712646484375</v>
+        <v>2.6328125</v>
       </c>
       <c r="AA5" t="n">
-        <v>24.8955419921875</v>
+        <v>11.045654296875</v>
       </c>
       <c r="AB5" t="n">
-        <v>25.533759765625</v>
+        <v>23.36962890625</v>
       </c>
       <c r="AC5" t="n">
-        <v>22.75990234375</v>
+        <v>42.38525390625</v>
       </c>
       <c r="AD5" t="n">
-        <v>29.923154296875</v>
+        <v>42.5068359375</v>
       </c>
       <c r="AE5" t="n">
-        <v>29.47313232421875</v>
+        <v>20.77587890625</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>7.07958984375</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Oct</t>
+          <t>Nov</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.64867919921875</v>
+        <v>6.333984375</v>
       </c>
       <c r="C6" t="n">
-        <v>10.4444921875</v>
+        <v>6.2109375</v>
       </c>
       <c r="D6" t="n">
-        <v>8.807829589843751</v>
+        <v>7.412109375</v>
       </c>
       <c r="E6" t="n">
-        <v>15.37821533203125</v>
+        <v>21.9385546875</v>
       </c>
       <c r="F6" t="n">
-        <v>17.13857666015625</v>
+        <v>20.739287109375</v>
       </c>
       <c r="G6" t="n">
-        <v>34.22794921875</v>
+        <v>8.1351318359375</v>
       </c>
       <c r="H6" t="n">
-        <v>39.8888671875</v>
+        <v>6.40294921875</v>
       </c>
       <c r="I6" t="n">
-        <v>39.8888671875</v>
+        <v>13.53568359375</v>
       </c>
       <c r="J6" t="n">
-        <v>23.380048828125</v>
+        <v>19.793125</v>
       </c>
       <c r="K6" t="n">
-        <v>8.647185058593749</v>
+        <v>27.2589306640625</v>
       </c>
       <c r="L6" t="n">
-        <v>5.000166015625</v>
+        <v>44.4306884765625</v>
       </c>
       <c r="M6" t="n">
-        <v>13.865673828125</v>
+        <v>46.288125</v>
       </c>
       <c r="N6" t="n">
-        <v>40.6663818359375</v>
+        <v>29.168671875</v>
       </c>
       <c r="O6" t="n">
-        <v>50.99062499999999</v>
+        <v>23.7512109375</v>
       </c>
       <c r="P6" t="n">
-        <v>56.8837890625</v>
+        <v>31.41337890625</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.3876953125</v>
+        <v>26.768310546875</v>
       </c>
       <c r="R6" t="n">
-        <v>9.67138671875</v>
+        <v>26.4823828125</v>
       </c>
       <c r="S6" t="n">
-        <v>12.8828125</v>
+        <v>32.14943115234374</v>
       </c>
       <c r="T6" t="n">
-        <v>17.74716796875</v>
+        <v>31.6995849609375</v>
       </c>
       <c r="U6" t="n">
-        <v>30.95029296875</v>
+        <v>13.19748046875</v>
       </c>
       <c r="V6" t="n">
-        <v>34.41470703125</v>
+        <v>13.6810546875</v>
       </c>
       <c r="W6" t="n">
-        <v>39.6463671875</v>
+        <v>10.6891845703125</v>
       </c>
       <c r="X6" t="n">
-        <v>22.9320703125</v>
+        <v>10.772587890625</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.419921875</v>
+        <v>17.58645751953125</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.6328125</v>
+        <v>26.4638916015625</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.045654296875</v>
+        <v>22.187666015625</v>
       </c>
       <c r="AB6" t="n">
-        <v>23.36962890625</v>
+        <v>7.47989013671875</v>
       </c>
       <c r="AC6" t="n">
-        <v>42.38525390625</v>
+        <v>12.854609375</v>
       </c>
       <c r="AD6" t="n">
-        <v>45.405029296875</v>
+        <v>10.7367626953125</v>
       </c>
       <c r="AE6" t="n">
-        <v>20.77587890625</v>
+        <v>12.77578125</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.07958984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Nov</t>
+          <t>Dec</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.333984375</v>
+        <v>23.599453125</v>
       </c>
       <c r="C7" t="n">
-        <v>6.2109375</v>
+        <v>26.98517578125</v>
       </c>
       <c r="D7" t="n">
-        <v>7.412109375</v>
+        <v>30.04530029296875</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9385546875</v>
+        <v>9.727343749999999</v>
       </c>
       <c r="F7" t="n">
-        <v>20.739287109375</v>
+        <v>10.524892578125</v>
       </c>
       <c r="G7" t="n">
-        <v>8.1351318359375</v>
+        <v>17.51982421875</v>
       </c>
       <c r="H7" t="n">
-        <v>6.40294921875</v>
+        <v>19.51103515625</v>
       </c>
       <c r="I7" t="n">
-        <v>13.53568359375</v>
+        <v>21.981845703125</v>
       </c>
       <c r="J7" t="n">
-        <v>19.793125</v>
+        <v>22.81194091796875</v>
       </c>
       <c r="K7" t="n">
-        <v>27.2589306640625</v>
+        <v>24.46580078125</v>
       </c>
       <c r="L7" t="n">
-        <v>44.4306884765625</v>
+        <v>16.87939453125</v>
       </c>
       <c r="M7" t="n">
-        <v>46.288125</v>
+        <v>13.8036376953125</v>
       </c>
       <c r="N7" t="n">
-        <v>29.168671875</v>
+        <v>12.935185546875</v>
       </c>
       <c r="O7" t="n">
-        <v>23.7512109375</v>
+        <v>9.956879882812499</v>
       </c>
       <c r="P7" t="n">
-        <v>31.41337890625</v>
+        <v>9.5174560546875</v>
       </c>
       <c r="Q7" t="n">
-        <v>26.768310546875</v>
+        <v>10.360478515625</v>
       </c>
       <c r="R7" t="n">
-        <v>26.4823828125</v>
+        <v>17.76478759765625</v>
       </c>
       <c r="S7" t="n">
-        <v>32.14943115234374</v>
+        <v>13.006826171875</v>
       </c>
       <c r="T7" t="n">
-        <v>31.6995849609375</v>
+        <v>7.401599121093749</v>
       </c>
       <c r="U7" t="n">
-        <v>13.19748046875</v>
+        <v>5.86650390625</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6810546875</v>
+        <v>7.24923828125</v>
       </c>
       <c r="W7" t="n">
-        <v>10.6891845703125</v>
+        <v>12.80806884765625</v>
       </c>
       <c r="X7" t="n">
-        <v>10.772587890625</v>
+        <v>7.6129345703125</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.58645751953125</v>
+        <v>11.6110107421875</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.4638916015625</v>
+        <v>4.12466064453125</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.187666015625</v>
+        <v>4.37836669921875</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.47989013671875</v>
+        <v>5.4515625</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.854609375</v>
+        <v>10.36801025390625</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.7367626953125</v>
+        <v>13.12841796875</v>
       </c>
       <c r="AE7" t="n">
-        <v>12.77578125</v>
+        <v>27.527001953125</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>30.8621826171875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Dec</t>
+          <t>Jan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.599453125</v>
+        <v>16.01132080078125</v>
       </c>
       <c r="C8" t="n">
-        <v>26.98517578125</v>
+        <v>14.74982666015625</v>
       </c>
       <c r="D8" t="n">
-        <v>30.04530029296875</v>
+        <v>9.811860351562499</v>
       </c>
       <c r="E8" t="n">
-        <v>9.727343749999999</v>
+        <v>14.501982421875</v>
       </c>
       <c r="F8" t="n">
-        <v>10.524892578125</v>
+        <v>26.55772705078125</v>
       </c>
       <c r="G8" t="n">
-        <v>17.51982421875</v>
+        <v>28.08324462890625</v>
       </c>
       <c r="H8" t="n">
-        <v>19.51103515625</v>
+        <v>29.718818359375</v>
       </c>
       <c r="I8" t="n">
-        <v>21.981845703125</v>
+        <v>11.382861328125</v>
       </c>
       <c r="J8" t="n">
-        <v>22.81194091796875</v>
+        <v>9.812021484375</v>
       </c>
       <c r="K8" t="n">
-        <v>24.46580078125</v>
+        <v>9.592109375</v>
       </c>
       <c r="L8" t="n">
-        <v>16.87939453125</v>
+        <v>11.9685302734375</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8036376953125</v>
+        <v>17.69696533203125</v>
       </c>
       <c r="N8" t="n">
-        <v>12.935185546875</v>
+        <v>29.6356640625</v>
       </c>
       <c r="O8" t="n">
-        <v>9.956879882812499</v>
+        <v>34.3083203125</v>
       </c>
       <c r="P8" t="n">
-        <v>9.5174560546875</v>
+        <v>20.428525390625</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.360478515625</v>
+        <v>14.576171875</v>
       </c>
       <c r="R8" t="n">
-        <v>17.76478759765625</v>
+        <v>7.3372265625</v>
       </c>
       <c r="S8" t="n">
-        <v>13.006826171875</v>
+        <v>5.984887695312501</v>
       </c>
       <c r="T8" t="n">
-        <v>7.401599121093749</v>
+        <v>12.2293212890625</v>
       </c>
       <c r="U8" t="n">
-        <v>5.86650390625</v>
+        <v>15.85643310546875</v>
       </c>
       <c r="V8" t="n">
-        <v>7.24923828125</v>
+        <v>22.6738916015625</v>
       </c>
       <c r="W8" t="n">
-        <v>12.80806884765625</v>
+        <v>6.3949462890625</v>
       </c>
       <c r="X8" t="n">
-        <v>7.6129345703125</v>
+        <v>5.03771484375</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.6110107421875</v>
+        <v>3.465869140625</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.12466064453125</v>
+        <v>5.9688916015625</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.37836669921875</v>
+        <v>23.40144775390625</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.4515625</v>
+        <v>36.137548828125</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.36801025390625</v>
+        <v>28.6319677734375</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.12841796875</v>
+        <v>16.6918896484375</v>
       </c>
       <c r="AE8" t="n">
-        <v>27.527001953125</v>
+        <v>6.367016601562501</v>
       </c>
       <c r="AF8" t="n">
-        <v>30.8621826171875</v>
+        <v>5.95587158203125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Jan</t>
+          <t>Feb</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.01132080078125</v>
+        <v>7.965302734375</v>
       </c>
       <c r="C9" t="n">
-        <v>14.74982666015625</v>
+        <v>13.67726318359375</v>
       </c>
       <c r="D9" t="n">
-        <v>9.811860351562499</v>
+        <v>21.0287158203125</v>
       </c>
       <c r="E9" t="n">
-        <v>14.501982421875</v>
+        <v>32.2508544921875</v>
       </c>
       <c r="F9" t="n">
-        <v>26.55772705078125</v>
+        <v>12.691943359375</v>
       </c>
       <c r="G9" t="n">
-        <v>28.08324462890625</v>
+        <v>15.68150390625</v>
       </c>
       <c r="H9" t="n">
-        <v>29.718818359375</v>
+        <v>14.16484375</v>
       </c>
       <c r="I9" t="n">
-        <v>11.382861328125</v>
+        <v>17.133037109375</v>
       </c>
       <c r="J9" t="n">
-        <v>9.812021484375</v>
+        <v>20.72021484375</v>
       </c>
       <c r="K9" t="n">
-        <v>9.592109375</v>
+        <v>27.397177734375</v>
       </c>
       <c r="L9" t="n">
-        <v>11.9685302734375</v>
+        <v>39.2473388671875</v>
       </c>
       <c r="M9" t="n">
-        <v>17.69696533203125</v>
+        <v>14.52705078125</v>
       </c>
       <c r="N9" t="n">
-        <v>29.6356640625</v>
+        <v>12.4358984375</v>
       </c>
       <c r="O9" t="n">
-        <v>34.3083203125</v>
+        <v>16.827890625</v>
       </c>
       <c r="P9" t="n">
-        <v>20.428525390625</v>
+        <v>15.52044189453125</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.576171875</v>
+        <v>21.1181005859375</v>
       </c>
       <c r="R9" t="n">
-        <v>7.3372265625</v>
+        <v>31.6009521484375</v>
       </c>
       <c r="S9" t="n">
-        <v>5.984887695312501</v>
+        <v>28.141083984375</v>
       </c>
       <c r="T9" t="n">
-        <v>12.2293212890625</v>
+        <v>23.4997705078125</v>
       </c>
       <c r="U9" t="n">
-        <v>15.85643310546875</v>
+        <v>13.5572607421875</v>
       </c>
       <c r="V9" t="n">
-        <v>22.6738916015625</v>
+        <v>12.271640625</v>
       </c>
       <c r="W9" t="n">
-        <v>6.3949462890625</v>
+        <v>11.032890625</v>
       </c>
       <c r="X9" t="n">
-        <v>5.03771484375</v>
+        <v>14.510302734375</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.465869140625</v>
+        <v>31.7003173828125</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.9688916015625</v>
+        <v>32.774345703125</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.40144775390625</v>
+        <v>17.97563720703125</v>
       </c>
       <c r="AB9" t="n">
-        <v>36.137548828125</v>
+        <v>10.026875</v>
       </c>
       <c r="AC9" t="n">
-        <v>29.8768359375</v>
+        <v>12.107021484375</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.57041015625</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.367016601562501</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.95587158203125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Feb</t>
+          <t>Mar</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.81872802734375</v>
+        <v>13.20028076171875</v>
       </c>
       <c r="C10" t="n">
-        <v>14.78623046875</v>
+        <v>17.8814794921875</v>
       </c>
       <c r="D10" t="n">
-        <v>22.56740234375</v>
+        <v>25.5900390625</v>
       </c>
       <c r="E10" t="n">
-        <v>32.2508544921875</v>
+        <v>33.1063427734375</v>
       </c>
       <c r="F10" t="n">
-        <v>12.691943359375</v>
+        <v>26.9873046875</v>
       </c>
       <c r="G10" t="n">
-        <v>15.68150390625</v>
+        <v>23.6267578125</v>
       </c>
       <c r="H10" t="n">
-        <v>14.16484375</v>
+        <v>14.87677734375</v>
       </c>
       <c r="I10" t="n">
-        <v>17.133037109375</v>
+        <v>24.8495556640625</v>
       </c>
       <c r="J10" t="n">
-        <v>20.72021484375</v>
+        <v>32.1826171875</v>
       </c>
       <c r="K10" t="n">
-        <v>27.397177734375</v>
+        <v>69.989501953125</v>
       </c>
       <c r="L10" t="n">
-        <v>39.2473388671875</v>
+        <v>71.14111328125</v>
       </c>
       <c r="M10" t="n">
-        <v>14.52705078125</v>
+        <v>48.583984375</v>
       </c>
       <c r="N10" t="n">
-        <v>12.4358984375</v>
+        <v>37.037109375</v>
       </c>
       <c r="O10" t="n">
-        <v>16.827890625</v>
+        <v>33.627685546875</v>
       </c>
       <c r="P10" t="n">
-        <v>15.52044189453125</v>
+        <v>34.3072509765625</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.1181005859375</v>
+        <v>43.1984619140625</v>
       </c>
       <c r="R10" t="n">
-        <v>31.6009521484375</v>
+        <v>66.39013427734375</v>
       </c>
       <c r="S10" t="n">
-        <v>28.141083984375</v>
+        <v>56.94754638671876</v>
       </c>
       <c r="T10" t="n">
-        <v>23.4997705078125</v>
+        <v>19.26383056640625</v>
       </c>
       <c r="U10" t="n">
-        <v>13.5572607421875</v>
+        <v>5.41944580078125</v>
       </c>
       <c r="V10" t="n">
-        <v>12.271640625</v>
+        <v>6.30708740234375</v>
       </c>
       <c r="W10" t="n">
-        <v>11.032890625</v>
+        <v>25.075166015625</v>
       </c>
       <c r="X10" t="n">
-        <v>14.510302734375</v>
+        <v>34.0046875</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.7003173828125</v>
+        <v>33.29609375</v>
       </c>
       <c r="Z10" t="n">
-        <v>32.774345703125</v>
+        <v>39.0730078125</v>
       </c>
       <c r="AA10" t="n">
-        <v>17.97563720703125</v>
+        <v>24.3968798828125</v>
       </c>
       <c r="AB10" t="n">
-        <v>10.026875</v>
+        <v>25.880009765625</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.107021484375</v>
+        <v>22.45968017578125</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>30.4376220703125</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>26.94700927734375</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>33.05932861328125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mar</t>
+          <t>Apr</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.20028076171875</v>
+        <v>35.359365234375</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8814794921875</v>
+        <v>24.8328515625</v>
       </c>
       <c r="D11" t="n">
-        <v>25.5900390625</v>
+        <v>16.8710595703125</v>
       </c>
       <c r="E11" t="n">
-        <v>33.1063427734375</v>
+        <v>18.7828955078125</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9873046875</v>
+        <v>19.437451171875</v>
       </c>
       <c r="G11" t="n">
-        <v>23.6267578125</v>
+        <v>25.0515966796875</v>
       </c>
       <c r="H11" t="n">
-        <v>14.87677734375</v>
+        <v>35.934208984375</v>
       </c>
       <c r="I11" t="n">
-        <v>24.8495556640625</v>
+        <v>25.4877880859375</v>
       </c>
       <c r="J11" t="n">
-        <v>32.1826171875</v>
+        <v>15.9988720703125</v>
       </c>
       <c r="K11" t="n">
-        <v>69.989501953125</v>
+        <v>7.773359375</v>
       </c>
       <c r="L11" t="n">
-        <v>71.14111328125</v>
+        <v>15.3560546875</v>
       </c>
       <c r="M11" t="n">
-        <v>48.583984375</v>
+        <v>20.69890625</v>
       </c>
       <c r="N11" t="n">
-        <v>37.037109375</v>
+        <v>30.8665478515625</v>
       </c>
       <c r="O11" t="n">
-        <v>33.627685546875</v>
+        <v>41.35540771484375</v>
       </c>
       <c r="P11" t="n">
-        <v>34.3072509765625</v>
+        <v>41.67982177734375</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.1984619140625</v>
+        <v>33.038408203125</v>
       </c>
       <c r="R11" t="n">
-        <v>66.39013427734375</v>
+        <v>20.5286279296875</v>
       </c>
       <c r="S11" t="n">
-        <v>56.94754638671876</v>
+        <v>21.382421875</v>
       </c>
       <c r="T11" t="n">
-        <v>19.26383056640625</v>
+        <v>26.70328125</v>
       </c>
       <c r="U11" t="n">
-        <v>5.41944580078125</v>
+        <v>30.74779541015625</v>
       </c>
       <c r="V11" t="n">
-        <v>6.30708740234375</v>
+        <v>31.4827734375</v>
       </c>
       <c r="W11" t="n">
-        <v>25.075166015625</v>
+        <v>34.87650146484375</v>
       </c>
       <c r="X11" t="n">
-        <v>34.0046875</v>
+        <v>24.195703125</v>
       </c>
       <c r="Y11" t="n">
-        <v>33.29609375</v>
+        <v>23.47624755859375</v>
       </c>
       <c r="Z11" t="n">
-        <v>39.0730078125</v>
+        <v>28.47705078125</v>
       </c>
       <c r="AA11" t="n">
-        <v>24.3968798828125</v>
+        <v>27.011015625</v>
       </c>
       <c r="AB11" t="n">
-        <v>25.880009765625</v>
+        <v>33.099853515625</v>
       </c>
       <c r="AC11" t="n">
-        <v>22.45968017578125</v>
+        <v>35.302060546875</v>
       </c>
       <c r="AD11" t="n">
-        <v>30.4376220703125</v>
+        <v>33.7081298828125</v>
       </c>
       <c r="AE11" t="n">
-        <v>26.94700927734375</v>
+        <v>26.710546875</v>
       </c>
       <c r="AF11" t="n">
-        <v>33.05932861328125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Apr</t>
+          <t>May</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.359365234375</v>
+        <v>20.1252734375</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8328515625</v>
+        <v>17.6634814453125</v>
       </c>
       <c r="D12" t="n">
-        <v>16.8710595703125</v>
+        <v>26.10948486328125</v>
       </c>
       <c r="E12" t="n">
-        <v>18.7828955078125</v>
+        <v>32.244697265625</v>
       </c>
       <c r="F12" t="n">
-        <v>19.437451171875</v>
+        <v>34.7897607421875</v>
       </c>
       <c r="G12" t="n">
-        <v>25.0515966796875</v>
+        <v>40.45201171875</v>
       </c>
       <c r="H12" t="n">
-        <v>35.934208984375</v>
+        <v>26.050546875</v>
       </c>
       <c r="I12" t="n">
-        <v>25.4877880859375</v>
+        <v>18.62126708984375</v>
       </c>
       <c r="J12" t="n">
-        <v>15.9988720703125</v>
+        <v>12.49464111328125</v>
       </c>
       <c r="K12" t="n">
-        <v>7.773359375</v>
+        <v>14.7889599609375</v>
       </c>
       <c r="L12" t="n">
-        <v>15.3560546875</v>
+        <v>17.8476123046875</v>
       </c>
       <c r="M12" t="n">
-        <v>20.69890625</v>
+        <v>36.51345458984375</v>
       </c>
       <c r="N12" t="n">
-        <v>30.8665478515625</v>
+        <v>34.64296875</v>
       </c>
       <c r="O12" t="n">
-        <v>41.35540771484375</v>
+        <v>17.5490478515625</v>
       </c>
       <c r="P12" t="n">
-        <v>41.67982177734375</v>
+        <v>16.47548828125</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.038408203125</v>
+        <v>32.98490234375</v>
       </c>
       <c r="R12" t="n">
-        <v>21.01740478515625</v>
+        <v>28.82724609375</v>
       </c>
       <c r="S12" t="n">
-        <v>21.8796875</v>
+        <v>28.356884765625</v>
       </c>
       <c r="T12" t="n">
-        <v>27.259599609375</v>
+        <v>39.72431640625</v>
       </c>
       <c r="U12" t="n">
-        <v>31.350693359375</v>
+        <v>31.10483154296875</v>
       </c>
       <c r="V12" t="n">
-        <v>31.4827734375</v>
+        <v>22.5210205078125</v>
       </c>
       <c r="W12" t="n">
-        <v>34.87650146484375</v>
+        <v>16.30781005859375</v>
       </c>
       <c r="X12" t="n">
-        <v>24.195703125</v>
+        <v>15.05689453125</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.47624755859375</v>
+        <v>15.50070556640625</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.47705078125</v>
+        <v>18.53778564453125</v>
       </c>
       <c r="AA12" t="n">
-        <v>27.011015625</v>
+        <v>29.124423828125</v>
       </c>
       <c r="AB12" t="n">
-        <v>33.099853515625</v>
+        <v>33.168310546875</v>
       </c>
       <c r="AC12" t="n">
-        <v>35.302060546875</v>
+        <v>29.090419921875</v>
       </c>
       <c r="AD12" t="n">
-        <v>33.7081298828125</v>
+        <v>17.66911376953125</v>
       </c>
       <c r="AE12" t="n">
-        <v>26.710546875</v>
+        <v>16.300400390625</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>26.08065673828125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>Jun</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.1252734375</v>
+        <v>25.1741015625</v>
       </c>
       <c r="C13" t="n">
-        <v>17.6634814453125</v>
+        <v>28.1977978515625</v>
       </c>
       <c r="D13" t="n">
-        <v>26.10948486328125</v>
+        <v>31.3299609375</v>
       </c>
       <c r="E13" t="n">
-        <v>32.244697265625</v>
+        <v>16.5420556640625</v>
       </c>
       <c r="F13" t="n">
-        <v>34.7897607421875</v>
+        <v>18.1551123046875</v>
       </c>
       <c r="G13" t="n">
-        <v>40.45201171875</v>
+        <v>9.878525390625001</v>
       </c>
       <c r="H13" t="n">
-        <v>26.050546875</v>
+        <v>10.9866650390625</v>
       </c>
       <c r="I13" t="n">
-        <v>18.62126708984375</v>
+        <v>25.15616455078125</v>
       </c>
       <c r="J13" t="n">
-        <v>12.49464111328125</v>
+        <v>33.4067578125</v>
       </c>
       <c r="K13" t="n">
-        <v>14.7889599609375</v>
+        <v>31.8867822265625</v>
       </c>
       <c r="L13" t="n">
-        <v>17.8476123046875</v>
+        <v>21.38115966796875</v>
       </c>
       <c r="M13" t="n">
-        <v>36.51345458984375</v>
+        <v>12.65337890625</v>
       </c>
       <c r="N13" t="n">
-        <v>34.64296875</v>
+        <v>17.3225</v>
       </c>
       <c r="O13" t="n">
-        <v>17.5490478515625</v>
+        <v>19.74420166015625</v>
       </c>
       <c r="P13" t="n">
-        <v>16.47548828125</v>
+        <v>27.29931640625</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.98490234375</v>
+        <v>32.8914794921875</v>
       </c>
       <c r="R13" t="n">
-        <v>28.82724609375</v>
+        <v>24.331533203125</v>
       </c>
       <c r="S13" t="n">
-        <v>28.356884765625</v>
+        <v>22.11427001953125</v>
       </c>
       <c r="T13" t="n">
-        <v>39.72431640625</v>
+        <v>16.8238916015625</v>
       </c>
       <c r="U13" t="n">
-        <v>31.10483154296875</v>
+        <v>15.84013671875</v>
       </c>
       <c r="V13" t="n">
-        <v>22.5210205078125</v>
+        <v>17.92908935546875</v>
       </c>
       <c r="W13" t="n">
-        <v>16.30781005859375</v>
+        <v>14.17589599609375</v>
       </c>
       <c r="X13" t="n">
-        <v>15.05689453125</v>
+        <v>28.8430078125</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.50070556640625</v>
+        <v>32.58081298828125</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.53778564453125</v>
+        <v>25.487109375</v>
       </c>
       <c r="AA13" t="n">
-        <v>29.124423828125</v>
+        <v>16.01580322265625</v>
       </c>
       <c r="AB13" t="n">
-        <v>33.168310546875</v>
+        <v>14.37643310546875</v>
       </c>
       <c r="AC13" t="n">
-        <v>29.090419921875</v>
+        <v>5.0769140625</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.66911376953125</v>
+        <v>10.82359375</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.300400390625</v>
+        <v>25.34705078125</v>
       </c>
       <c r="AF13" t="n">
-        <v>26.08065673828125</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/past_revpab.xlsx
+++ b/Output/past_revpab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1302 +434,1459 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>Year</t>
         </is>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="I1" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="J1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="K1" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="L1" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="M1" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="N1" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="O1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="P1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="Q1" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="R1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="S1" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="T1" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="U1" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="V1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="W1" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="X1" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="Y1" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="Z1" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="AA1" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="AB1" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AC1" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AD1" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AE1" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="n">
+      <c r="AF1" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="n">
+      <c r="AG1" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="n">
+      <c r="AH1" s="1" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Jul</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>30.9627685546875</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="n">
-        <v>22.5655078125</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>23.73066650390625</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.0329443359375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.6915771484375</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.7621875</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37.085712890625</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>45.49189453125</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.7978125</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.678671874999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>14.800517578125</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.972460937499999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.94212890625</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.202685546875</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>12.9144970703125</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.446943359375</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.8716259765625</v>
+        <v>0.009635416666666667</v>
       </c>
       <c r="S2" t="n">
-        <v>5.29050537109375</v>
+        <v>0.2447786458333333</v>
       </c>
       <c r="T2" t="n">
-        <v>13.072939453125</v>
+        <v>2.2423984375</v>
       </c>
       <c r="U2" t="n">
-        <v>10.0351904296875</v>
+        <v>11.25476041666667</v>
       </c>
       <c r="V2" t="n">
-        <v>8.7627392578125</v>
+        <v>25.066421875</v>
       </c>
       <c r="W2" t="n">
-        <v>7.700561523437501</v>
+        <v>14.461078125</v>
       </c>
       <c r="X2" t="n">
-        <v>6.06097412109375</v>
+        <v>13.08975</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.00932861328125</v>
+        <v>11.76841666666667</v>
       </c>
       <c r="Z2" t="n">
-        <v>6.97728515625</v>
+        <v>15.47765625</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.547060546875</v>
+        <v>33.813671875</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.3746923828125</v>
+        <v>34.95930208333333</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.529951171875</v>
+        <v>19.17401302083333</v>
       </c>
       <c r="AD2" t="n">
-        <v>35.91072265625</v>
+        <v>10.69533333333333</v>
       </c>
       <c r="AE2" t="n">
-        <v>23.78193115234375</v>
+        <v>12.91415625</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.065615234375</v>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Aug</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.957160644531251</v>
+        <v>2023</v>
       </c>
       <c r="C3" t="n">
-        <v>6.693984374999999</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6516455078125</v>
+        <v>14.08029947916667</v>
       </c>
       <c r="E3" t="n">
-        <v>31.547978515625</v>
+        <v>19.073578125</v>
       </c>
       <c r="F3" t="n">
-        <v>47.69736328125</v>
+        <v>27.29604166666666</v>
       </c>
       <c r="G3" t="n">
-        <v>43.905546875</v>
+        <v>35.31343229166666</v>
       </c>
       <c r="H3" t="n">
-        <v>11.50140625</v>
+        <v>28.78645833333334</v>
       </c>
       <c r="I3" t="n">
-        <v>10.34296875</v>
+        <v>25.201875</v>
       </c>
       <c r="J3" t="n">
-        <v>13.8900390625</v>
+        <v>15.8685625</v>
       </c>
       <c r="K3" t="n">
-        <v>20.1517822265625</v>
+        <v>26.50619270833333</v>
       </c>
       <c r="L3" t="n">
-        <v>19.60728515625</v>
+        <v>34.328125</v>
       </c>
       <c r="M3" t="n">
-        <v>34.32151123046875</v>
+        <v>74.65546875</v>
       </c>
       <c r="N3" t="n">
-        <v>37.70682373046875</v>
+        <v>75.88385416666667</v>
       </c>
       <c r="O3" t="n">
-        <v>14.833544921875</v>
+        <v>51.82291666666667</v>
       </c>
       <c r="P3" t="n">
-        <v>19.469892578125</v>
+        <v>39.50625</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.4231201171875</v>
+        <v>35.86953125</v>
       </c>
       <c r="R3" t="n">
-        <v>19.35615234375</v>
+        <v>36.59440104166666</v>
       </c>
       <c r="S3" t="n">
-        <v>21.0098486328125</v>
+        <v>46.078359375</v>
       </c>
       <c r="T3" t="n">
-        <v>30.354013671875</v>
+        <v>70.81614322916667</v>
       </c>
       <c r="U3" t="n">
-        <v>35.6342578125</v>
+        <v>60.74404947916667</v>
       </c>
       <c r="V3" t="n">
-        <v>10.452265625</v>
+        <v>20.5480859375</v>
       </c>
       <c r="W3" t="n">
-        <v>14.2217041015625</v>
+        <v>5.7807421875</v>
       </c>
       <c r="X3" t="n">
-        <v>20.773134765625</v>
+        <v>6.727559895833334</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.49371337890625</v>
+        <v>26.74684375</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.7810986328125</v>
+        <v>36.27166666666666</v>
       </c>
       <c r="AA3" t="n">
-        <v>21.47725341796875</v>
+        <v>35.51583333333334</v>
       </c>
       <c r="AB3" t="n">
-        <v>24.42365234375</v>
+        <v>41.67787500000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.1544140625</v>
+        <v>26.02333854166666</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.3516552734375</v>
+        <v>27.60534375</v>
       </c>
       <c r="AE3" t="n">
-        <v>12.36082763671875</v>
+        <v>23.9569921875</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.53703125</v>
+        <v>32.466796875</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>28.7434765625</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>35.26328385416667</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Sep</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16.78538818359375</v>
+        <v>2023</v>
       </c>
       <c r="C4" t="n">
-        <v>22.91494140625</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>28.581416015625</v>
+        <v>37.71665625</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28759765625</v>
+        <v>26.488375</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8495556640625</v>
+        <v>17.995796875</v>
       </c>
       <c r="G4" t="n">
-        <v>10.15916015625</v>
+        <v>20.03508854166667</v>
       </c>
       <c r="H4" t="n">
-        <v>11.4881982421875</v>
+        <v>20.73328125</v>
       </c>
       <c r="I4" t="n">
-        <v>21.2465869140625</v>
+        <v>26.721703125</v>
       </c>
       <c r="J4" t="n">
-        <v>30.33995361328125</v>
+        <v>38.32982291666667</v>
       </c>
       <c r="K4" t="n">
-        <v>27.037294921875</v>
+        <v>27.18697395833334</v>
       </c>
       <c r="L4" t="n">
-        <v>18.45692138671875</v>
+        <v>17.06546354166667</v>
       </c>
       <c r="M4" t="n">
-        <v>14.88662841796875</v>
+        <v>8.291583333333334</v>
       </c>
       <c r="N4" t="n">
-        <v>14.3994677734375</v>
+        <v>16.37979166666667</v>
       </c>
       <c r="O4" t="n">
-        <v>16.163671875</v>
+        <v>22.07883333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>14.3108642578125</v>
+        <v>32.92431770833333</v>
       </c>
       <c r="Q4" t="n">
-        <v>36.590556640625</v>
+        <v>44.11243489583333</v>
       </c>
       <c r="R4" t="n">
-        <v>36.731484375</v>
+        <v>44.4584765625</v>
       </c>
       <c r="S4" t="n">
-        <v>24.906708984375</v>
+        <v>35.24096875</v>
       </c>
       <c r="T4" t="n">
-        <v>18.897333984375</v>
+        <v>22.41856510416667</v>
       </c>
       <c r="U4" t="n">
-        <v>21.3402490234375</v>
+        <v>23.33833333333333</v>
       </c>
       <c r="V4" t="n">
-        <v>19.3273828125</v>
+        <v>29.07690625</v>
       </c>
       <c r="W4" t="n">
-        <v>26.5098046875</v>
+        <v>33.44073958333333</v>
       </c>
       <c r="X4" t="n">
-        <v>33.9161376953125</v>
+        <v>33.581625</v>
       </c>
       <c r="Y4" t="n">
-        <v>37.07528564453125</v>
+        <v>37.2016015625</v>
       </c>
       <c r="Z4" t="n">
-        <v>29.1712646484375</v>
+        <v>25.80875</v>
       </c>
       <c r="AA4" t="n">
-        <v>24.8955419921875</v>
+        <v>25.04133072916667</v>
       </c>
       <c r="AB4" t="n">
-        <v>25.533759765625</v>
+        <v>30.37552083333334</v>
       </c>
       <c r="AC4" t="n">
-        <v>22.75990234375</v>
+        <v>28.81175</v>
       </c>
       <c r="AD4" t="n">
-        <v>29.923154296875</v>
+        <v>35.30651041666667</v>
       </c>
       <c r="AE4" t="n">
-        <v>29.47313232421875</v>
+        <v>37.65553125</v>
       </c>
       <c r="AF4" t="n">
+        <v>35.95533854166667</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>28.49125</v>
+      </c>
+      <c r="AH4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Oct</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20.64867919921875</v>
+        <v>2023</v>
       </c>
       <c r="C5" t="n">
-        <v>10.4444921875</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>8.807829589843751</v>
+        <v>21.46695833333333</v>
       </c>
       <c r="E5" t="n">
-        <v>15.37821533203125</v>
+        <v>18.841046875</v>
       </c>
       <c r="F5" t="n">
-        <v>17.13857666015625</v>
+        <v>27.8501171875</v>
       </c>
       <c r="G5" t="n">
-        <v>34.22794921875</v>
+        <v>34.39434375</v>
       </c>
       <c r="H5" t="n">
-        <v>39.8888671875</v>
+        <v>37.109078125</v>
       </c>
       <c r="I5" t="n">
-        <v>39.8888671875</v>
+        <v>43.14881250000001</v>
       </c>
       <c r="J5" t="n">
-        <v>23.380048828125</v>
+        <v>27.78725</v>
       </c>
       <c r="K5" t="n">
-        <v>8.647185058593749</v>
+        <v>19.86268489583333</v>
       </c>
       <c r="L5" t="n">
-        <v>5.000166015625</v>
+        <v>13.3276171875</v>
       </c>
       <c r="M5" t="n">
-        <v>13.865673828125</v>
+        <v>15.774890625</v>
       </c>
       <c r="N5" t="n">
-        <v>40.6663818359375</v>
+        <v>19.037453125</v>
       </c>
       <c r="O5" t="n">
-        <v>50.99062499999999</v>
+        <v>38.94768489583333</v>
       </c>
       <c r="P5" t="n">
-        <v>56.8837890625</v>
+        <v>36.9525</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.3876953125</v>
+        <v>18.718984375</v>
       </c>
       <c r="R5" t="n">
-        <v>9.67138671875</v>
+        <v>17.57385416666666</v>
       </c>
       <c r="S5" t="n">
-        <v>12.8828125</v>
+        <v>35.18389583333334</v>
       </c>
       <c r="T5" t="n">
-        <v>17.74716796875</v>
+        <v>30.7490625</v>
       </c>
       <c r="U5" t="n">
-        <v>30.95029296875</v>
+        <v>30.24734375</v>
       </c>
       <c r="V5" t="n">
-        <v>34.41470703125</v>
+        <v>42.37260416666667</v>
       </c>
       <c r="W5" t="n">
-        <v>39.6463671875</v>
+        <v>33.17848697916667</v>
       </c>
       <c r="X5" t="n">
-        <v>22.9320703125</v>
+        <v>24.022421875</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.419921875</v>
+        <v>17.39499739583334</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.6328125</v>
+        <v>16.0606875</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.045654296875</v>
+        <v>16.5340859375</v>
       </c>
       <c r="AB5" t="n">
-        <v>23.36962890625</v>
+        <v>19.77363802083334</v>
       </c>
       <c r="AC5" t="n">
-        <v>42.38525390625</v>
+        <v>31.06605208333334</v>
       </c>
       <c r="AD5" t="n">
-        <v>42.5068359375</v>
+        <v>35.37953125</v>
       </c>
       <c r="AE5" t="n">
-        <v>20.77587890625</v>
+        <v>31.02978125</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.07958984375</v>
+        <v>18.8470546875</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>17.38709375</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>27.8193671875</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Nov</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.333984375</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="n">
-        <v>6.2109375</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>7.412109375</v>
+        <v>26.852375</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9385546875</v>
+        <v>30.07765104166667</v>
       </c>
       <c r="F6" t="n">
-        <v>20.739287109375</v>
+        <v>33.418625</v>
       </c>
       <c r="G6" t="n">
-        <v>8.1351318359375</v>
+        <v>17.644859375</v>
       </c>
       <c r="H6" t="n">
-        <v>6.40294921875</v>
+        <v>19.365453125</v>
       </c>
       <c r="I6" t="n">
-        <v>13.53568359375</v>
+        <v>10.53709375</v>
       </c>
       <c r="J6" t="n">
-        <v>19.793125</v>
+        <v>11.719109375</v>
       </c>
       <c r="K6" t="n">
-        <v>27.2589306640625</v>
+        <v>26.8332421875</v>
       </c>
       <c r="L6" t="n">
-        <v>44.4306884765625</v>
+        <v>35.633875</v>
       </c>
       <c r="M6" t="n">
-        <v>46.288125</v>
+        <v>34.01256770833334</v>
       </c>
       <c r="N6" t="n">
-        <v>29.168671875</v>
+        <v>22.8065703125</v>
       </c>
       <c r="O6" t="n">
-        <v>23.7512109375</v>
+        <v>13.4969375</v>
       </c>
       <c r="P6" t="n">
-        <v>31.41337890625</v>
+        <v>18.47733333333333</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.768310546875</v>
+        <v>21.06048177083333</v>
       </c>
       <c r="R6" t="n">
-        <v>26.4823828125</v>
+        <v>29.11927083333333</v>
       </c>
       <c r="S6" t="n">
-        <v>32.14943115234374</v>
+        <v>35.08424479166666</v>
       </c>
       <c r="T6" t="n">
-        <v>31.6995849609375</v>
+        <v>25.95363541666666</v>
       </c>
       <c r="U6" t="n">
-        <v>13.19748046875</v>
+        <v>23.5885546875</v>
       </c>
       <c r="V6" t="n">
-        <v>13.6810546875</v>
+        <v>17.945484375</v>
       </c>
       <c r="W6" t="n">
-        <v>10.6891845703125</v>
+        <v>16.89614583333333</v>
       </c>
       <c r="X6" t="n">
-        <v>10.772587890625</v>
+        <v>19.12436197916666</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.58645751953125</v>
+        <v>15.12095572916667</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.4638916015625</v>
+        <v>30.765875</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.187666015625</v>
+        <v>34.75286718749999</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.47989013671875</v>
+        <v>27.18625</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.854609375</v>
+        <v>17.0835234375</v>
       </c>
       <c r="AD6" t="n">
-        <v>10.7367626953125</v>
+        <v>15.33486197916667</v>
       </c>
       <c r="AE6" t="n">
-        <v>12.77578125</v>
+        <v>5.415375</v>
       </c>
       <c r="AF6" t="n">
+        <v>11.54516666666667</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>27.03685416666666</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Dec</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.599453125</v>
+        <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>26.98517578125</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>30.04530029296875</v>
+        <v>33.026953125</v>
       </c>
       <c r="E7" t="n">
-        <v>9.727343749999999</v>
+        <v>24.069875</v>
       </c>
       <c r="F7" t="n">
-        <v>10.524892578125</v>
+        <v>25.3127109375</v>
       </c>
       <c r="G7" t="n">
-        <v>17.51982421875</v>
+        <v>23.50180729166667</v>
       </c>
       <c r="H7" t="n">
-        <v>19.51103515625</v>
+        <v>28.471015625</v>
       </c>
       <c r="I7" t="n">
-        <v>21.981845703125</v>
+        <v>34.94633333333334</v>
       </c>
       <c r="J7" t="n">
-        <v>22.81194091796875</v>
+        <v>39.55809375</v>
       </c>
       <c r="K7" t="n">
-        <v>24.46580078125</v>
+        <v>48.5246875</v>
       </c>
       <c r="L7" t="n">
-        <v>16.87939453125</v>
+        <v>26.451</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8036376953125</v>
+        <v>10.32391666666667</v>
       </c>
       <c r="N7" t="n">
-        <v>12.935185546875</v>
+        <v>15.78721875</v>
       </c>
       <c r="O7" t="n">
-        <v>9.956879882812499</v>
+        <v>6.370625</v>
       </c>
       <c r="P7" t="n">
-        <v>9.5174560546875</v>
+        <v>8.471604166666665</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.360478515625</v>
+        <v>11.94953125</v>
       </c>
       <c r="R7" t="n">
-        <v>17.76478759765625</v>
+        <v>13.77546354166667</v>
       </c>
       <c r="S7" t="n">
-        <v>13.006826171875</v>
+        <v>7.943406250000001</v>
       </c>
       <c r="T7" t="n">
-        <v>7.401599121093749</v>
+        <v>6.263067708333335</v>
       </c>
       <c r="U7" t="n">
-        <v>5.86650390625</v>
+        <v>5.643205729166667</v>
       </c>
       <c r="V7" t="n">
-        <v>7.24923828125</v>
+        <v>13.94446875</v>
       </c>
       <c r="W7" t="n">
-        <v>12.80806884765625</v>
+        <v>10.704203125</v>
       </c>
       <c r="X7" t="n">
-        <v>7.6129345703125</v>
+        <v>9.346921875</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.6110107421875</v>
+        <v>8.213932291666667</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.12466064453125</v>
+        <v>6.4650390625</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.37836669921875</v>
+        <v>4.276617187499999</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.4515625</v>
+        <v>7.4424375</v>
       </c>
       <c r="AC7" t="n">
-        <v>10.36801025390625</v>
+        <v>15.51686458333333</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.12841796875</v>
+        <v>16.399671875</v>
       </c>
       <c r="AE7" t="n">
-        <v>27.527001953125</v>
+        <v>42.16528125</v>
       </c>
       <c r="AF7" t="n">
-        <v>30.8621826171875</v>
+        <v>39.591828125</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>26.405625</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.661531249999999</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.01132080078125</v>
+        <v>2023</v>
       </c>
       <c r="C8" t="n">
-        <v>14.74982666015625</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>9.811860351562499</v>
+        <v>11.2865</v>
       </c>
       <c r="E8" t="n">
-        <v>14.501982421875</v>
+        <v>8.256427083333334</v>
       </c>
       <c r="F8" t="n">
-        <v>26.55772705078125</v>
+        <v>11.9168671875</v>
       </c>
       <c r="G8" t="n">
-        <v>28.08324462890625</v>
+        <v>22.27954947916667</v>
       </c>
       <c r="H8" t="n">
-        <v>29.718818359375</v>
+        <v>23.708453125</v>
       </c>
       <c r="I8" t="n">
-        <v>11.382861328125</v>
+        <v>11.8988203125</v>
       </c>
       <c r="J8" t="n">
-        <v>9.812021484375</v>
+        <v>11.297515625</v>
       </c>
       <c r="K8" t="n">
-        <v>9.592109375</v>
+        <v>12.29693229166667</v>
       </c>
       <c r="L8" t="n">
-        <v>11.9685302734375</v>
+        <v>12.80888020833333</v>
       </c>
       <c r="M8" t="n">
-        <v>17.69696533203125</v>
+        <v>17.0788515625</v>
       </c>
       <c r="N8" t="n">
-        <v>29.6356640625</v>
+        <v>33.35802604166667</v>
       </c>
       <c r="O8" t="n">
-        <v>34.3083203125</v>
+        <v>38.72395833333334</v>
       </c>
       <c r="P8" t="n">
-        <v>20.428525390625</v>
+        <v>22.29195833333333</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.576171875</v>
+        <v>22.21811979166667</v>
       </c>
       <c r="R8" t="n">
-        <v>7.3372265625</v>
+        <v>27.28521614583333</v>
       </c>
       <c r="S8" t="n">
-        <v>5.984887695312501</v>
+        <v>16.54696875</v>
       </c>
       <c r="T8" t="n">
-        <v>12.2293212890625</v>
+        <v>18.294328125</v>
       </c>
       <c r="U8" t="n">
-        <v>15.85643310546875</v>
+        <v>32.46174479166667</v>
       </c>
       <c r="V8" t="n">
-        <v>22.6738916015625</v>
+        <v>17.77881510416667</v>
       </c>
       <c r="W8" t="n">
-        <v>6.3949462890625</v>
+        <v>11.67616666666667</v>
       </c>
       <c r="X8" t="n">
-        <v>5.03771484375</v>
+        <v>9.691953125</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.465869140625</v>
+        <v>17.232171875</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.9688916015625</v>
+        <v>19.61552083333333</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.40144775390625</v>
+        <v>21.24478125</v>
       </c>
       <c r="AB8" t="n">
-        <v>36.137548828125</v>
+        <v>19.10163541666667</v>
       </c>
       <c r="AC8" t="n">
-        <v>28.6319677734375</v>
+        <v>33.46889583333333</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.6918896484375</v>
+        <v>16.8373125</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.367016601562501</v>
+        <v>10.16604166666667</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.95587158203125</v>
+        <v>14.20544791666667</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16.263109375</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>23.103046875</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Feb</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.965302734375</v>
+        <v>2023</v>
       </c>
       <c r="C9" t="n">
-        <v>13.67726318359375</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0287158203125</v>
+        <v>32.7676015625</v>
       </c>
       <c r="E9" t="n">
-        <v>32.2508544921875</v>
+        <v>46.07359895833333</v>
       </c>
       <c r="F9" t="n">
-        <v>12.691943359375</v>
+        <v>36.87046875</v>
       </c>
       <c r="G9" t="n">
-        <v>15.68150390625</v>
+        <v>16.0421015625</v>
       </c>
       <c r="H9" t="n">
-        <v>14.16484375</v>
+        <v>13.62338541666667</v>
       </c>
       <c r="I9" t="n">
-        <v>17.133037109375</v>
+        <v>9.828359375</v>
       </c>
       <c r="J9" t="n">
-        <v>20.72021484375</v>
+        <v>15.95297395833333</v>
       </c>
       <c r="K9" t="n">
-        <v>27.397177734375</v>
+        <v>20.466859375</v>
       </c>
       <c r="L9" t="n">
-        <v>39.2473388671875</v>
+        <v>30.483375</v>
       </c>
       <c r="M9" t="n">
-        <v>14.52705078125</v>
+        <v>29.1532734375</v>
       </c>
       <c r="N9" t="n">
-        <v>12.4358984375</v>
+        <v>32.53809375</v>
       </c>
       <c r="O9" t="n">
-        <v>16.827890625</v>
+        <v>30.71588541666667</v>
       </c>
       <c r="P9" t="n">
-        <v>15.52044189453125</v>
+        <v>30.33671875</v>
       </c>
       <c r="Q9" t="n">
-        <v>21.1181005859375</v>
+        <v>26.07208333333333</v>
       </c>
       <c r="R9" t="n">
-        <v>31.6009521484375</v>
+        <v>42.8405625</v>
       </c>
       <c r="S9" t="n">
-        <v>28.141083984375</v>
+        <v>42.49009375</v>
       </c>
       <c r="T9" t="n">
-        <v>23.4997705078125</v>
+        <v>12.2161875</v>
       </c>
       <c r="U9" t="n">
-        <v>13.5572607421875</v>
+        <v>29.25920833333333</v>
       </c>
       <c r="V9" t="n">
-        <v>12.271640625</v>
+        <v>26.647265625</v>
       </c>
       <c r="W9" t="n">
-        <v>11.032890625</v>
+        <v>26.01915104166667</v>
       </c>
       <c r="X9" t="n">
-        <v>14.510302734375</v>
+        <v>35.883421875</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.7003173828125</v>
+        <v>45.04820833333333</v>
       </c>
       <c r="Z9" t="n">
-        <v>32.774345703125</v>
+        <v>37.01328125</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.97563720703125</v>
+        <v>18.01475</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.026875</v>
+        <v>20.702171875</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.107021484375</v>
+        <v>26.21592708333333</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>33.569703125</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>29.18815104166667</v>
       </c>
       <c r="AF9" t="n">
+        <v>43.691375</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>43.79111197916666</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Mar</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.20028076171875</v>
+        <v>2023</v>
       </c>
       <c r="C10" t="n">
-        <v>17.8814794921875</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>25.5900390625</v>
+        <v>6.661458333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>33.1063427734375</v>
+        <v>3.410833333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>26.9873046875</v>
+        <v>4.5103125</v>
       </c>
       <c r="G10" t="n">
-        <v>23.6267578125</v>
+        <v>7.2689375</v>
       </c>
       <c r="H10" t="n">
-        <v>14.87677734375</v>
+        <v>23.7110625</v>
       </c>
       <c r="I10" t="n">
-        <v>24.8495556640625</v>
+        <v>57.42800520833333</v>
       </c>
       <c r="J10" t="n">
-        <v>32.1826171875</v>
+        <v>57.63811979166667</v>
       </c>
       <c r="K10" t="n">
-        <v>69.989501953125</v>
+        <v>34.52755208333334</v>
       </c>
       <c r="L10" t="n">
-        <v>71.14111328125</v>
+        <v>13.21785416666667</v>
       </c>
       <c r="M10" t="n">
-        <v>48.583984375</v>
+        <v>11.61275</v>
       </c>
       <c r="N10" t="n">
-        <v>37.037109375</v>
+        <v>19.55697916666666</v>
       </c>
       <c r="O10" t="n">
-        <v>33.627685546875</v>
+        <v>47.89132291666667</v>
       </c>
       <c r="P10" t="n">
-        <v>34.3072509765625</v>
+        <v>65.19188541666666</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.1984619140625</v>
+        <v>66.46434635416666</v>
       </c>
       <c r="R10" t="n">
-        <v>66.39013427734375</v>
+        <v>34.41111458333334</v>
       </c>
       <c r="S10" t="n">
-        <v>56.94754638671876</v>
+        <v>18.2398125</v>
       </c>
       <c r="T10" t="n">
-        <v>19.26383056640625</v>
+        <v>23.5805625</v>
       </c>
       <c r="U10" t="n">
-        <v>5.41944580078125</v>
+        <v>30.3453125</v>
       </c>
       <c r="V10" t="n">
-        <v>6.30708740234375</v>
+        <v>51.70921875</v>
       </c>
       <c r="W10" t="n">
-        <v>25.075166015625</v>
+        <v>70.56270833333333</v>
       </c>
       <c r="X10" t="n">
-        <v>34.0046875</v>
+        <v>68.729203125</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.29609375</v>
+        <v>40.96015625</v>
       </c>
       <c r="Z10" t="n">
-        <v>39.0730078125</v>
+        <v>30.0203125</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.3968798828125</v>
+        <v>16.199640625</v>
       </c>
       <c r="AB10" t="n">
-        <v>25.880009765625</v>
+        <v>34.99518229166667</v>
       </c>
       <c r="AC10" t="n">
-        <v>22.45968017578125</v>
+        <v>45.20677083333334</v>
       </c>
       <c r="AD10" t="n">
-        <v>30.4376220703125</v>
+        <v>58.44270833333333</v>
       </c>
       <c r="AE10" t="n">
-        <v>26.94700927734375</v>
+        <v>63.43271093749999</v>
       </c>
       <c r="AF10" t="n">
-        <v>33.05932861328125</v>
+        <v>41.8348046875</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9.160302083333333</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>15.37080208333333</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Apr</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>35.359365234375</v>
+        <v>2023</v>
       </c>
       <c r="C11" t="n">
-        <v>24.8328515625</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>16.8710595703125</v>
+        <v>30.16692708333334</v>
       </c>
       <c r="E11" t="n">
-        <v>18.7828955078125</v>
+        <v>49.0725</v>
       </c>
       <c r="F11" t="n">
-        <v>19.437451171875</v>
+        <v>62.35188281249999</v>
       </c>
       <c r="G11" t="n">
-        <v>25.0515966796875</v>
+        <v>58.81795833333334</v>
       </c>
       <c r="H11" t="n">
-        <v>35.934208984375</v>
+        <v>28.1942265625</v>
       </c>
       <c r="I11" t="n">
-        <v>25.4877880859375</v>
+        <v>15.1262890625</v>
       </c>
       <c r="J11" t="n">
-        <v>15.9988720703125</v>
+        <v>18.7605234375</v>
       </c>
       <c r="K11" t="n">
-        <v>7.773359375</v>
+        <v>22.37657291666667</v>
       </c>
       <c r="L11" t="n">
-        <v>15.3560546875</v>
+        <v>34.3255078125</v>
       </c>
       <c r="M11" t="n">
-        <v>20.69890625</v>
+        <v>55.22434375</v>
       </c>
       <c r="N11" t="n">
-        <v>30.8665478515625</v>
+        <v>48.55794270833334</v>
       </c>
       <c r="O11" t="n">
-        <v>41.35540771484375</v>
+        <v>15.02020833333333</v>
       </c>
       <c r="P11" t="n">
-        <v>41.67982177734375</v>
+        <v>9.938692708333333</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.038408203125</v>
+        <v>11.445078125</v>
       </c>
       <c r="R11" t="n">
-        <v>20.5286279296875</v>
+        <v>16.53977864583333</v>
       </c>
       <c r="S11" t="n">
-        <v>21.382421875</v>
+        <v>41.19193229166667</v>
       </c>
       <c r="T11" t="n">
-        <v>26.70328125</v>
+        <v>35.64015364583333</v>
       </c>
       <c r="U11" t="n">
-        <v>30.74779541015625</v>
+        <v>47.21014062499999</v>
       </c>
       <c r="V11" t="n">
-        <v>31.4827734375</v>
+        <v>27.03053125</v>
       </c>
       <c r="W11" t="n">
-        <v>34.87650146484375</v>
+        <v>14.6265625</v>
       </c>
       <c r="X11" t="n">
-        <v>24.195703125</v>
+        <v>17.1005625</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.47624755859375</v>
+        <v>16.10936979166667</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.47705078125</v>
+        <v>24.54599479166667</v>
       </c>
       <c r="AA11" t="n">
-        <v>27.011015625</v>
+        <v>30.52794791666667</v>
       </c>
       <c r="AB11" t="n">
-        <v>33.099853515625</v>
+        <v>24.3793203125</v>
       </c>
       <c r="AC11" t="n">
-        <v>35.302060546875</v>
+        <v>13.8342421875</v>
       </c>
       <c r="AD11" t="n">
-        <v>33.7081298828125</v>
+        <v>10.45757552083334</v>
       </c>
       <c r="AE11" t="n">
-        <v>26.710546875</v>
+        <v>14.565375</v>
       </c>
       <c r="AF11" t="n">
+        <v>18.755625</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>24.28141145833333</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.1252734375</v>
+        <v>2023</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6634814453125</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>26.10948486328125</v>
+        <v>32.86888020833334</v>
       </c>
       <c r="E12" t="n">
-        <v>32.244697265625</v>
+        <v>34.59479166666667</v>
       </c>
       <c r="F12" t="n">
-        <v>34.7897607421875</v>
+        <v>16.89677083333333</v>
       </c>
       <c r="G12" t="n">
-        <v>40.45201171875</v>
+        <v>10.772421875</v>
       </c>
       <c r="H12" t="n">
-        <v>26.050546875</v>
+        <v>6.552473958333334</v>
       </c>
       <c r="I12" t="n">
-        <v>18.62126708984375</v>
+        <v>10.4838125</v>
       </c>
       <c r="J12" t="n">
-        <v>12.49464111328125</v>
+        <v>10.75441666666667</v>
       </c>
       <c r="K12" t="n">
-        <v>14.7889599609375</v>
+        <v>33.11859895833334</v>
       </c>
       <c r="L12" t="n">
-        <v>17.8476123046875</v>
+        <v>31.60150260416667</v>
       </c>
       <c r="M12" t="n">
-        <v>36.51345458984375</v>
+        <v>14.51278125</v>
       </c>
       <c r="N12" t="n">
-        <v>34.64296875</v>
+        <v>14.59290625</v>
       </c>
       <c r="O12" t="n">
-        <v>17.5490478515625</v>
+        <v>14.24990104166667</v>
       </c>
       <c r="P12" t="n">
-        <v>16.47548828125</v>
+        <v>17.49527083333333</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.98490234375</v>
+        <v>9.269242187500002</v>
       </c>
       <c r="R12" t="n">
-        <v>28.82724609375</v>
+        <v>14.79697916666667</v>
       </c>
       <c r="S12" t="n">
-        <v>28.356884765625</v>
+        <v>14.04866666666667</v>
       </c>
       <c r="T12" t="n">
-        <v>39.72431640625</v>
+        <v>9.410122395833334</v>
       </c>
       <c r="U12" t="n">
-        <v>31.10483154296875</v>
+        <v>4.562604166666667</v>
       </c>
       <c r="V12" t="n">
-        <v>22.5210205078125</v>
+        <v>4.472124999999999</v>
       </c>
       <c r="W12" t="n">
-        <v>16.30781005859375</v>
+        <v>4.874489583333333</v>
       </c>
       <c r="X12" t="n">
-        <v>15.05689453125</v>
+        <v>6.610364583333333</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.50070556640625</v>
+        <v>3.827953125</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.53778564453125</v>
+        <v>2.842416666666666</v>
       </c>
       <c r="AA12" t="n">
-        <v>29.124423828125</v>
+        <v>1.422875</v>
       </c>
       <c r="AB12" t="n">
-        <v>33.168310546875</v>
+        <v>3.851041666666666</v>
       </c>
       <c r="AC12" t="n">
-        <v>29.090419921875</v>
+        <v>3.282609375</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.66911376953125</v>
+        <v>6.463572916666667</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.300400390625</v>
+        <v>7.727822916666667</v>
       </c>
       <c r="AF12" t="n">
-        <v>26.08065673828125</v>
+        <v>13.19328125</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>17.18151041666667</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>42.01875</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Jun</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.1741015625</v>
+        <v>2024</v>
       </c>
       <c r="C13" t="n">
-        <v>28.1977978515625</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>31.3299609375</v>
+        <v>11.93010416666667</v>
       </c>
       <c r="E13" t="n">
-        <v>16.5420556640625</v>
+        <v>8.346916666666667</v>
       </c>
       <c r="F13" t="n">
-        <v>18.1551123046875</v>
+        <v>9.905234375000001</v>
       </c>
       <c r="G13" t="n">
-        <v>9.878525390625001</v>
+        <v>8.557874999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>10.9866650390625</v>
+        <v>12.3296875</v>
       </c>
       <c r="I13" t="n">
-        <v>25.15616455078125</v>
+        <v>13.58466666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>33.4067578125</v>
+        <v>9.065596354166667</v>
       </c>
       <c r="K13" t="n">
-        <v>31.8867822265625</v>
+        <v>6.881604166666667</v>
       </c>
       <c r="L13" t="n">
-        <v>21.38115966796875</v>
+        <v>11.17634895833333</v>
       </c>
       <c r="M13" t="n">
-        <v>12.65337890625</v>
+        <v>12.58651041666667</v>
       </c>
       <c r="N13" t="n">
-        <v>17.3225</v>
+        <v>13.41016666666667</v>
       </c>
       <c r="O13" t="n">
-        <v>19.74420166015625</v>
+        <v>12.568984375</v>
       </c>
       <c r="P13" t="n">
-        <v>27.29931640625</v>
+        <v>12.79751041666667</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.8914794921875</v>
+        <v>10.00234375</v>
       </c>
       <c r="R13" t="n">
-        <v>24.331533203125</v>
+        <v>14.00540625</v>
       </c>
       <c r="S13" t="n">
-        <v>22.11427001953125</v>
+        <v>5.267166666666666</v>
       </c>
       <c r="T13" t="n">
-        <v>16.8238916015625</v>
+        <v>6.055</v>
       </c>
       <c r="U13" t="n">
-        <v>15.84013671875</v>
+        <v>11.183125</v>
       </c>
       <c r="V13" t="n">
-        <v>17.92908935546875</v>
+        <v>5.507195312499999</v>
       </c>
       <c r="W13" t="n">
-        <v>14.17589599609375</v>
+        <v>10.725703125</v>
       </c>
       <c r="X13" t="n">
-        <v>28.8430078125</v>
+        <v>11.124375</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.58081298828125</v>
+        <v>8.927619791666668</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.487109375</v>
+        <v>9.02765625</v>
       </c>
       <c r="AA13" t="n">
-        <v>16.01580322265625</v>
+        <v>4.371171874999999</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.37643310546875</v>
+        <v>6.01775</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.0769140625</v>
+        <v>3.9080078125</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.82359375</v>
+        <v>9.457296875000001</v>
       </c>
       <c r="AE13" t="n">
-        <v>25.34705078125</v>
+        <v>5.765752604166667</v>
       </c>
       <c r="AF13" t="n">
+        <v>2.528515625</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.822239583333333</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6.434796875</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.3576640625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15.73943229166667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19.58880208333333</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.34784375</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.410234375000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5.4016875</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.072330729166667</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10.764140625</v>
+      </c>
+      <c r="L14" t="n">
+        <v>23.64536197916667</v>
+      </c>
+      <c r="M14" t="n">
+        <v>17.69797395833333</v>
+      </c>
+      <c r="N14" t="n">
+        <v>4.857244791666667</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5.707533854166667</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10.013671875</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.5878125</v>
+      </c>
+      <c r="R14" t="n">
+        <v>16.544546875</v>
+      </c>
+      <c r="S14" t="n">
+        <v>21.00353125</v>
+      </c>
+      <c r="T14" t="n">
+        <v>36.6217578125</v>
+      </c>
+      <c r="U14" t="n">
+        <v>15.47455729166667</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7.0629375</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Output/past_revpab.xlsx
+++ b/Output/past_revpab.xlsx
@@ -594,16 +594,16 @@
         <v>0.009635416666666667</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2447786458333333</v>
+        <v>0.01015625</v>
       </c>
       <c r="T2" t="n">
-        <v>2.2423984375</v>
+        <v>0.1911458333333333</v>
       </c>
       <c r="U2" t="n">
-        <v>11.25476041666667</v>
+        <v>1.3353125</v>
       </c>
       <c r="V2" t="n">
-        <v>25.066421875</v>
+        <v>6.1259375</v>
       </c>
       <c r="W2" t="n">
         <v>14.461078125</v>
@@ -1815,46 +1815,46 @@
         <v>5.4016875</v>
       </c>
       <c r="J14" t="n">
-        <v>7.072330729166667</v>
+        <v>7.605744791666667</v>
       </c>
       <c r="K14" t="n">
-        <v>10.764140625</v>
+        <v>11.4377890625</v>
       </c>
       <c r="L14" t="n">
-        <v>23.64536197916667</v>
+        <v>24.758015625</v>
       </c>
       <c r="M14" t="n">
-        <v>17.69797395833333</v>
+        <v>18.6651171875</v>
       </c>
       <c r="N14" t="n">
-        <v>4.857244791666667</v>
+        <v>5.311622395833334</v>
       </c>
       <c r="O14" t="n">
-        <v>5.707533854166667</v>
+        <v>6.1869375</v>
       </c>
       <c r="P14" t="n">
-        <v>10.013671875</v>
+        <v>10.64615885416667</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.5878125</v>
+        <v>10.20610416666667</v>
       </c>
       <c r="R14" t="n">
-        <v>16.544546875</v>
+        <v>17.3760234375</v>
       </c>
       <c r="S14" t="n">
-        <v>21.00353125</v>
+        <v>22.0525</v>
       </c>
       <c r="T14" t="n">
-        <v>36.6217578125</v>
+        <v>38.00716145833334</v>
       </c>
       <c r="U14" t="n">
-        <v>15.47455729166667</v>
+        <v>17.11038020833334</v>
       </c>
       <c r="V14" t="n">
-        <v>7.0629375</v>
+        <v>9.284989583333333</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.228276041666667</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
